--- a/Hybrid_StockAccountERP/FileOutput/HybridResult.xlsx
+++ b/Hybrid_StockAccountERP/FileOutput/HybridResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Myproject_workspace\Hybrid_StockAccountERP\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4F5AA6-95EF-4B4C-AF34-97BA976B71D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA914E8C-3D06-43FE-A531-151675F14ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{A5E6CC10-68D3-4FBC-8E23-D441BD5BA73E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="786" xr2:uid="{A5E6CC10-68D3-4FBC-8E23-D441BD5BA73E}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="5" r:id="rId1"/>
@@ -552,7 +552,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -560,42 +560,42 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FF1F1F1F"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
@@ -2072,7 +2072,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,6 +2082,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,23 +2151,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2710,8 +2748,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2722,87 +2760,87 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.90625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="33">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="D2" t="s" s="47">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="77">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="D3" t="s" s="91">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="135">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="D4" t="s" s="149">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="197">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="D5" t="s" s="211">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="259">
+      <c r="D6" t="s" s="273">
         <v>154</v>
       </c>
     </row>
@@ -2818,8 +2856,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2832,7 +2870,7 @@
     <col min="6" max="6" customWidth="true" width="13.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -2852,204 +2890,204 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="16">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="30">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="18">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="F4" t="s" s="32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="20">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="F5" t="s" s="34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="22">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="F6" t="s" s="36">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="24">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="38">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="12">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="26">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="F8" t="s" s="40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="28">
+      <c r="F9" t="s" s="42">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s" s="30">
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s" s="44">
         <v>154</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="32">
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="46">
         <v>154</v>
       </c>
     </row>
@@ -3065,8 +3103,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3080,462 +3118,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s" s="34">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="48">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="36">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="50">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="38">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="F4" t="s" s="52">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="40">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="F5" t="s" s="54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="42">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="F6" t="s" s="56">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="44">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="58">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="46">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="F8" t="s" s="60">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="48">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="F9" t="s" s="62">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="14">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="50">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+      <c r="F10" t="s" s="64">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="52">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="66">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="14">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="54">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="F12" t="s" s="68">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s" s="56">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="16">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="58">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
+      <c r="F14" t="s" s="72">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F15" t="s" s="60">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="F15" t="s" s="74">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s" s="62">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s" s="76">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="18">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="64">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="F17" t="s" s="78">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s" s="66">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="E18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s" s="80">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="18">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="68">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="F19" t="s" s="82">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s" s="70">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s" s="84">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F21" t="s" s="72">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
+      <c r="F21" t="s" s="86">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s" s="74">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
+      <c r="E22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s" s="88">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s" s="76">
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="90">
         <v>154</v>
       </c>
     </row>
@@ -3551,8 +3589,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F30"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3566,26 +3604,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -3601,11 +3639,11 @@
       <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="78">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s" s="92">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -3621,11 +3659,11 @@
       <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="80">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s" s="94">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -3641,11 +3679,11 @@
       <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="82">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s" s="96">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -3661,11 +3699,11 @@
       <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="84">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s" s="98">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -3681,11 +3719,11 @@
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="86">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s" s="100">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -3701,11 +3739,11 @@
       <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="88">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s" s="102">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>50</v>
       </c>
@@ -3721,11 +3759,11 @@
       <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="90">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s" s="104">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -3741,391 +3779,391 @@
       <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="92">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="F9" t="s" s="106">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="94">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="F10" t="s" s="108">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="96">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="110">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="98">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="F12" t="s" s="112">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s" s="100">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="114">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="102">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="F14" t="s" s="116">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" t="s" s="104">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="F15" t="s" s="118">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="106">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="F16" t="s" s="120">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s" s="108">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s" s="122">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="110">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+      <c r="F18" t="s" s="124">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" t="s" s="112">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="F19" t="s" s="126">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s" s="114">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+      <c r="F20" t="s" s="128">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F21" t="s" s="116">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+      <c r="F21" t="s" s="130">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s" s="118">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+      <c r="F22" t="s" s="132">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s" s="120">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="134">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="122">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="F24" t="s" s="136">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s" s="124">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s" s="138">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="126">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
+      <c r="F26" t="s" s="140">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s" s="128">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s" s="142">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s" s="130">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s" s="144">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -4141,11 +4179,11 @@
       <c r="E29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s" s="132">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="F29" t="s" s="146">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
@@ -4161,7 +4199,7 @@
       <c r="E30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F30" t="s" s="134">
+      <c r="F30" t="s" s="148">
         <v>154</v>
       </c>
     </row>
@@ -4178,7 +4216,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4192,642 +4230,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s" s="136">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="150">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="138">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="152">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="140">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="F4" t="s" s="154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="142">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="F5" t="s" s="156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="144">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="F6" t="s" s="158">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="146">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="160">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="148">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="F8" t="s" s="162">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="150">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="F9" t="s" s="164">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="152">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="F10" t="s" s="166">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="154">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="168">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="156">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="F12" t="s" s="170">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s" s="158">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="172">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="160">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="F14" t="s" s="174">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s" s="162">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s" s="176">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F16" t="s" s="164">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="F16" t="s" s="178">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s" s="166">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="F17" t="s" s="180">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F18" t="s" s="168">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+      <c r="F18" t="s" s="182">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s" s="170">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="F19" t="s" s="184">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F20" t="s" s="172">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+      <c r="F20" t="s" s="186">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F21" t="s" s="174">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+      <c r="F21" t="s" s="188">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F22" t="s" s="176">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+      <c r="F22" t="s" s="190">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F23" t="s" s="178">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+      <c r="F23" t="s" s="192">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F24" t="s" s="180">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="F24" t="s" s="194">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s" s="182">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s" s="196">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="184">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
+      <c r="F26" t="s" s="198">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s" s="186">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s" s="200">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="188">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+      <c r="F28" t="s" s="202">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s" s="190">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s" s="204">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s" s="192">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s" s="206">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s" s="194">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s" s="208">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s" s="196">
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s" s="210">
         <v>154</v>
       </c>
     </row>
@@ -4847,7 +4885,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4861,642 +4899,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s" s="198">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="212">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="200">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s" s="214">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="202">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="F4" t="s" s="216">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s" s="204">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="F5" t="s" s="218">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s" s="206">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="F6" t="s" s="220">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="208">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="222">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="210">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="F8" t="s" s="224">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s" s="212">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="F9" t="s" s="226">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="214">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="F10" t="s" s="228">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s" s="216">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s" s="230">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="218">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="F12" t="s" s="232">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s" s="220">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s" s="234">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="222">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="F14" t="s" s="236">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s" s="224">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s" s="238">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F16" t="s" s="226">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
+      <c r="F16" t="s" s="240">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F17" t="s" s="228">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="7" t="s">
+      <c r="F17" t="s" s="242">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F18" t="s" s="230">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+      <c r="F18" t="s" s="244">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s" s="232">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="F19" t="s" s="246">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F20" t="s" s="234">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="7" t="s">
+      <c r="F20" t="s" s="248">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F21" t="s" s="236">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="7" t="s">
+      <c r="F21" t="s" s="250">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F22" t="s" s="238">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="7" t="s">
+      <c r="F22" t="s" s="252">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F23" t="s" s="240">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
+      <c r="F23" t="s" s="254">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F24" t="s" s="242">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="7" t="s">
+      <c r="F24" t="s" s="256">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s" s="244">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="7" t="s">
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s" s="258">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="246">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="7" t="s">
+      <c r="F26" t="s" s="260">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s" s="248">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s" s="262">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="250">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="7" t="s">
+      <c r="F28" t="s" s="264">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s" s="252">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s" s="266">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s" s="254">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s" s="268">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s" s="256">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s" s="270">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s" s="258">
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s" s="272">
         <v>154</v>
       </c>
     </row>
